--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccruz1\Documents\Visual Studio 2012\Projects\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccruz1\Documents\Visual Studio 2015\Projects\SerializeAndDeserialize\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
   <si>
     <t>Task No.</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>Done // with light errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a way to read the specific node </t>
+  </si>
+  <si>
+    <t>Use a XML reader to read the searchManager service</t>
+  </si>
+  <si>
+    <t>Use the alternate reader like XMLDocument of XMLTextReader</t>
+  </si>
+  <si>
+    <t>Then choose the reader that was appropriate to use</t>
   </si>
 </sst>
 </file>
@@ -478,20 +490,6 @@
         <name val="Tw Cen MT"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -532,6 +530,20 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="Tw Cen MT"/>
@@ -553,12 +565,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C126" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C126" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C126"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Task No." dataDxfId="3"/>
-    <tableColumn id="2" name="Task" dataDxfId="2"/>
-    <tableColumn id="3" name="Notes" dataDxfId="1"/>
+    <tableColumn id="1" name="Task No." dataDxfId="2"/>
+    <tableColumn id="2" name="Task" dataDxfId="1"/>
+    <tableColumn id="3" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -832,15 +844,15 @@
   </sheetPr>
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="82.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
@@ -2158,28 +2170,36 @@
       <c r="A121" s="8">
         <v>98</v>
       </c>
-      <c r="B121" s="16"/>
+      <c r="B121" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="C121" s="16"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>99</v>
       </c>
-      <c r="B122" s="16"/>
+      <c r="B122" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="C122" s="16"/>
     </row>
     <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>100</v>
       </c>
-      <c r="B123" s="16"/>
+      <c r="B123" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="C123" s="16"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>101</v>
       </c>
-      <c r="B124" s="16"/>
+      <c r="B124" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="C124" s="16"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>Task No.</t>
   </si>
@@ -845,7 +845,7 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2173,7 +2173,9 @@
       <c r="B121" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C121" s="16"/>
+      <c r="C121" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
@@ -2182,7 +2184,9 @@
       <c r="B122" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="16"/>
+      <c r="C122" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
@@ -2191,7 +2195,9 @@
       <c r="B123" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="16"/>
+      <c r="C123" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
@@ -2200,7 +2206,9 @@
       <c r="B124" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C124" s="16"/>
+      <c r="C124" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="8">

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
   <si>
     <t>Task No.</t>
   </si>
@@ -360,13 +360,22 @@
   </si>
   <si>
     <t>Then choose the reader that was appropriate to use</t>
+  </si>
+  <si>
+    <t>Filter the node choose the EDP node only</t>
+  </si>
+  <si>
+    <t>Code the logic on filtering the needed node</t>
+  </si>
+  <si>
+    <t>Add a code the redirect the product details of the filtered node</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +401,11 @@
       <color theme="1"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
     </font>
   </fonts>
   <fills count="3">
@@ -420,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,6 +486,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,8 +585,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C126" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C131" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C131"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -842,10 +862,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2127,7 +2147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>96</v>
       </c>
@@ -2211,18 +2231,59 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
-        <v>102</v>
-      </c>
+      <c r="A125" s="18"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
     </row>
-    <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="17">
-        <v>103</v>
-      </c>
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="18"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="15">
+        <v>42703</v>
+      </c>
+      <c r="C127" s="12"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>102</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="17">
+        <v>103</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="18">
+        <v>104</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
   <si>
     <t>Task No.</t>
   </si>
@@ -369,6 +369,21 @@
   </si>
   <si>
     <t>Add a code the redirect the product details of the filtered node</t>
+  </si>
+  <si>
+    <t>December  01-02</t>
+  </si>
+  <si>
+    <t>Get the URL for the web service of the Product Info and append the EDP no to generate the Details about the product</t>
+  </si>
+  <si>
+    <t>Add the proper controls for containing every details about the Products</t>
+  </si>
+  <si>
+    <t>Code the logic for inserting data to the controls</t>
+  </si>
+  <si>
+    <t>Not yet Done</t>
   </si>
 </sst>
 </file>
@@ -585,8 +600,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C131" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C131"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C140" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C140"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -862,10 +877,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:C130"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2285,6 +2300,71 @@
       <c r="B131" s="19"/>
       <c r="C131" s="16"/>
     </row>
+    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="18"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="12"/>
+    </row>
+    <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="18">
+        <v>105</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="18">
+        <v>106</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="18">
+        <v>107</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -879,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:C139"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>Task No.</t>
   </si>
@@ -374,9 +374,6 @@
     <t>December  01-02</t>
   </si>
   <si>
-    <t>Get the URL for the web service of the Product Info and append the EDP no to generate the Details about the product</t>
-  </si>
-  <si>
     <t>Add the proper controls for containing every details about the Products</t>
   </si>
   <si>
@@ -384,6 +381,24 @@
   </si>
   <si>
     <t>Not yet Done</t>
+  </si>
+  <si>
+    <t>Get the URL for the web service of the Product Info and append the EDP no. to generate the Details about the product</t>
+  </si>
+  <si>
+    <t>December  05-06</t>
+  </si>
+  <si>
+    <t>Try displaying Product Detail statically</t>
+  </si>
+  <si>
+    <t>Add a control (Radio Button List) that filters the product manufacturer/ brand</t>
+  </si>
+  <si>
+    <t>Programmatically add a data source from the XML url to the radio button list control</t>
+  </si>
+  <si>
+    <t>Code a class file for supplying the data to the data source of the radio button list</t>
   </si>
 </sst>
 </file>
@@ -512,7 +527,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -600,12 +669,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C140" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C149" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C149"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Task No." dataDxfId="2"/>
-    <tableColumn id="2" name="Task" dataDxfId="1"/>
-    <tableColumn id="3" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Task" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Notes" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -877,10 +946,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2386,7 @@
         <v>105</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>14</v>
@@ -2328,7 +2397,7 @@
         <v>106</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>14</v>
@@ -2339,10 +2408,10 @@
         <v>107</v>
       </c>
       <c r="B136" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2356,14 +2425,91 @@
       <c r="C138" s="19"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="12"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
+      <c r="A140" s="18">
+        <v>108</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="18">
+        <v>109</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="18">
+        <v>110</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="18">
+        <v>111</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="18">
+        <v>112</v>
+      </c>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="18">
+        <v>113</v>
+      </c>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="18">
+        <v>114</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
   <si>
     <t>Task No.</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>Code a class file for supplying the data to the data source of the radio button list</t>
+  </si>
+  <si>
+    <t>Code the logic for filtering the product after clicking the desired filter (Selected Brand)</t>
+  </si>
+  <si>
+    <t>Not Yet Done</t>
   </si>
 </sst>
 </file>
@@ -948,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2479,8 +2485,12 @@
       <c r="A144" s="18">
         <v>112</v>
       </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
+      <c r="B144" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="18">

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
   <si>
     <t>Task No.</t>
   </si>
@@ -404,7 +404,13 @@
     <t>Code the logic for filtering the product after clicking the desired filter (Selected Brand)</t>
   </si>
   <si>
-    <t>Not Yet Done</t>
+    <t>December  07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Done</t>
+  </si>
+  <si>
+    <t>Add a loading screen</t>
   </si>
 </sst>
 </file>
@@ -550,15 +556,11 @@
         <name val="Tw Cen MT"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -568,6 +570,7 @@
         <name val="Tw Cen MT"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -605,7 +608,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -615,8 +622,7 @@
         <name val="Tw Cen MT"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -675,12 +681,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C149" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C150" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C150"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Task" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="Notes" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Task" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="Notes" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,10 +958,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2489,37 +2495,52 @@
         <v>125</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="18">
-        <v>113</v>
-      </c>
+      <c r="A145" s="18"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="18">
-        <v>114</v>
-      </c>
+      <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="12"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
+      <c r="A148" s="18">
+        <v>113</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
+      <c r="A149" s="18">
+        <v>114</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
   <si>
     <t>Task No.</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>December  07-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Done</t>
   </si>
   <si>
     <t>Add a loading screen</t>
@@ -960,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2520,7 @@
         <v>125</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2531,7 +2528,7 @@
         <v>114</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>14</v>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
   <si>
     <t>Task No.</t>
   </si>
@@ -408,6 +408,21 @@
   </si>
   <si>
     <t>Add a loading screen</t>
+  </si>
+  <si>
+    <t>Add a control for searching</t>
+  </si>
+  <si>
+    <t>Code the logic for searching</t>
+  </si>
+  <si>
+    <t>Add a control to filter the view</t>
+  </si>
+  <si>
+    <t>Code the logic to filter the view</t>
+  </si>
+  <si>
+    <t>Not Yet Done</t>
   </si>
 </sst>
 </file>
@@ -678,8 +693,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C150" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C156" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C156"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" name="Task" dataDxfId="3" totalsRowDxfId="2"/>
@@ -955,10 +970,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2534,10 +2549,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="15">
+        <v>42713</v>
+      </c>
+      <c r="C152" s="12"/>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="18">
+        <v>113</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="18">
+        <v>114</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="18">
+        <v>115</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="18">
+        <v>116</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="134">
   <si>
     <t>Task No.</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>Not Yet Done</t>
+  </si>
+  <si>
+    <t>Code the logic for filtering  the Radio Button control data source</t>
   </si>
 </sst>
 </file>
@@ -693,8 +696,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C156" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C156"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C163" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C163"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" name="Task" dataDxfId="3" totalsRowDxfId="2"/>
@@ -970,10 +973,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:C156"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2610,6 +2613,61 @@
         <v>132</v>
       </c>
     </row>
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="18"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="18"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="15">
+        <v>42714</v>
+      </c>
+      <c r="C159" s="12"/>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="18">
+        <v>117</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="18">
+        <v>118</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="18">
+        <v>119</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="18"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
